--- a/Solina/Production/Input/GHI_2024-02-15.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-15.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3139.19</v>
+        <v>3139.12</v>
       </c>
       <c r="H2">
-        <v>6408.88</v>
+        <v>6408.63</v>
       </c>
       <c r="I2">
-        <v>758.6</v>
+        <v>758.63</v>
       </c>
       <c r="J2">
-        <v>3139.03</v>
+        <v>3138.97</v>
       </c>
       <c r="K2">
-        <v>6088.49</v>
+        <v>6088.63</v>
       </c>
       <c r="L2">
-        <v>758.98</v>
+        <v>758.96</v>
       </c>
     </row>
   </sheetData>
@@ -872,16 +872,16 @@
         <v>7.03</v>
       </c>
       <c r="I9">
-        <v>53.18</v>
+        <v>53.17</v>
       </c>
       <c r="J9">
         <v>8.470000000000001</v>
       </c>
       <c r="K9">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="L9">
-        <v>5.18</v>
+        <v>5.23</v>
       </c>
       <c r="M9">
         <v>6.74</v>
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>110.67</v>
+        <v>110.66</v>
       </c>
       <c r="I10">
-        <v>436.94</v>
+        <v>436.9</v>
       </c>
       <c r="J10">
         <v>49.52</v>
       </c>
       <c r="K10">
-        <v>110.62</v>
+        <v>110.65</v>
       </c>
       <c r="L10">
-        <v>397.67</v>
+        <v>397.93</v>
       </c>
       <c r="M10">
-        <v>45.26</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>257.7</v>
+        <v>257.69</v>
       </c>
       <c r="I11">
-        <v>642.37</v>
+        <v>642.3099999999999</v>
       </c>
       <c r="J11">
         <v>73.45</v>
       </c>
       <c r="K11">
-        <v>257.69</v>
+        <v>257.67</v>
       </c>
       <c r="L11">
-        <v>623.08</v>
+        <v>623</v>
       </c>
       <c r="M11">
-        <v>71.06999999999999</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,19 +992,19 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>384.47</v>
+        <v>384.46</v>
       </c>
       <c r="I12">
-        <v>740.71</v>
+        <v>740.67</v>
       </c>
       <c r="J12">
         <v>87.34999999999999</v>
       </c>
       <c r="K12">
-        <v>384.45</v>
+        <v>384.43</v>
       </c>
       <c r="L12">
-        <v>724.48</v>
+        <v>724.4400000000001</v>
       </c>
       <c r="M12">
         <v>86.76000000000001</v>
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>471.17</v>
+        <v>471.16</v>
       </c>
       <c r="I13">
-        <v>790.17</v>
+        <v>790.14</v>
       </c>
       <c r="J13">
-        <v>95.14</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="K13">
-        <v>471.15</v>
+        <v>471.14</v>
       </c>
       <c r="L13">
-        <v>766.53</v>
+        <v>766.51</v>
       </c>
       <c r="M13">
-        <v>99.56</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,19 +1074,19 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>507.45</v>
+        <v>507.44</v>
       </c>
       <c r="I14">
-        <v>808.08</v>
+        <v>808.0599999999999</v>
       </c>
       <c r="J14">
         <v>98.11</v>
       </c>
       <c r="K14">
-        <v>507.44</v>
+        <v>507.42</v>
       </c>
       <c r="L14">
-        <v>780.15</v>
+        <v>780.12</v>
       </c>
       <c r="M14">
         <v>105.47</v>
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>489.34</v>
+        <v>489.33</v>
       </c>
       <c r="I15">
-        <v>799.39</v>
+        <v>799.36</v>
       </c>
       <c r="J15">
         <v>96.63</v>
       </c>
       <c r="K15">
-        <v>489.32</v>
+        <v>489.3</v>
       </c>
       <c r="L15">
-        <v>773.62</v>
+        <v>773.5599999999999</v>
       </c>
       <c r="M15">
-        <v>102.49</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>418.78</v>
+        <v>418.77</v>
       </c>
       <c r="I16">
-        <v>761.7</v>
+        <v>761.6799999999999</v>
       </c>
       <c r="J16">
-        <v>90.53</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="K16">
-        <v>418.77</v>
+        <v>418.76</v>
       </c>
       <c r="L16">
         <v>743.1</v>
       </c>
       <c r="M16">
-        <v>91.61</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1200,19 +1200,19 @@
         <v>303.9</v>
       </c>
       <c r="I17">
-        <v>683.17</v>
+        <v>683.16</v>
       </c>
       <c r="J17">
-        <v>78.92</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="K17">
-        <v>303.89</v>
+        <v>303.9</v>
       </c>
       <c r="L17">
-        <v>664.9400000000001</v>
+        <v>664.98</v>
       </c>
       <c r="M17">
-        <v>77.3</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1247,10 +1247,10 @@
         <v>59.2</v>
       </c>
       <c r="K18">
-        <v>160.5</v>
+        <v>160.51</v>
       </c>
       <c r="L18">
-        <v>501.45</v>
+        <v>501.48</v>
       </c>
       <c r="M18">
         <v>55.03</v>
@@ -1291,7 +1291,7 @@
         <v>28.17</v>
       </c>
       <c r="L19">
-        <v>108.28</v>
+        <v>108.29</v>
       </c>
       <c r="M19">
         <v>17.7</v>
